--- a/data_pulling/team_game_logs_1819/team_game_log_ATL.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_ATL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -274,6 +274,9 @@
     <t>WAS</t>
   </si>
   <si>
+    <t>DEN</t>
+  </si>
+  <si>
     <t>MEM</t>
   </si>
   <si>
@@ -286,9 +289,6 @@
     <t>LAL</t>
   </si>
   <si>
-    <t>DEN</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>2018-12-06T00:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T00:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV26"/>
+  <dimension ref="A1:BV27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,7 +1187,7 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>47589</v>
@@ -1408,7 +1411,7 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>47605</v>
@@ -2080,7 +2083,7 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>47657</v>
@@ -2304,7 +2307,7 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>47666</v>
@@ -3648,7 +3651,7 @@
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>47758</v>
@@ -4096,7 +4099,7 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <v>47783</v>
@@ -6549,6 +6552,230 @@
         <v>73</v>
       </c>
       <c r="BV26">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>47949</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>98</v>
+      </c>
+      <c r="K27">
+        <v>98</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>18</v>
+      </c>
+      <c r="P27">
+        <v>51</v>
+      </c>
+      <c r="Q27">
+        <v>51</v>
+      </c>
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>49</v>
+      </c>
+      <c r="U27">
+        <v>42</v>
+      </c>
+      <c r="V27">
+        <v>42</v>
+      </c>
+      <c r="W27">
+        <v>15</v>
+      </c>
+      <c r="X27">
+        <v>15</v>
+      </c>
+      <c r="Y27">
+        <v>35.7</v>
+      </c>
+      <c r="Z27">
+        <v>93</v>
+      </c>
+      <c r="AA27">
+        <v>93</v>
+      </c>
+      <c r="AB27">
+        <v>40</v>
+      </c>
+      <c r="AC27">
+        <v>40</v>
+      </c>
+      <c r="AD27">
+        <v>43</v>
+      </c>
+      <c r="AE27">
+        <v>16</v>
+      </c>
+      <c r="AF27">
+        <v>16</v>
+      </c>
+      <c r="AG27">
+        <v>11</v>
+      </c>
+      <c r="AH27">
+        <v>11</v>
+      </c>
+      <c r="AI27">
+        <v>68.8</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>23</v>
+      </c>
+      <c r="AT27">
+        <v>16</v>
+      </c>
+      <c r="AU27">
+        <v>16</v>
+      </c>
+      <c r="AV27">
+        <v>23</v>
+      </c>
+      <c r="AW27">
+        <v>23</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>23</v>
+      </c>
+      <c r="BB27">
+        <v>16</v>
+      </c>
+      <c r="BC27">
+        <v>16</v>
+      </c>
+      <c r="BD27">
+        <v>23</v>
+      </c>
+      <c r="BE27">
+        <v>8</v>
+      </c>
+      <c r="BF27">
+        <v>8</v>
+      </c>
+      <c r="BG27">
+        <v>33</v>
+      </c>
+      <c r="BH27">
+        <v>33</v>
+      </c>
+      <c r="BI27">
+        <v>106</v>
+      </c>
+      <c r="BJ27">
+        <v>106</v>
+      </c>
+      <c r="BK27">
+        <v>42</v>
+      </c>
+      <c r="BL27">
+        <v>42</v>
+      </c>
+      <c r="BM27">
+        <v>9</v>
+      </c>
+      <c r="BN27">
+        <v>9</v>
+      </c>
+      <c r="BO27">
+        <v>51</v>
+      </c>
+      <c r="BP27">
+        <v>51</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV27">
         <v>91</v>
       </c>
     </row>
